--- a/dashboard_snapshot.xlsx
+++ b/dashboard_snapshot.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,91 @@
           <t>source_file</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>full name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>submission date</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>email type</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>invoice_number</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>customer_name</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>net_total</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>vat_amount</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>delivery</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -464,7 +549,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -474,7 +559,1480 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>a.html</t>
+          <t>contact_form_1.html</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Νίκος Παπαδόπουλος</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nikos.papadopoulos@example.gr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>210-1234567</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Digital Marketing Pro</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Ανάπτυξη Website</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Χρειαζόμαστε ένα νέο e-commerce website για την εταιρεία μας. Έχουμε περίπου 200 προϊόντα και θέλουμε integration με το ERP μας.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Υψηλή</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-01-15T14:30</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>contact_form_2.html</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Μαρία Κώστα</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>maria.kosta@lawfirm.gr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>210-9876543</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Κώστα &amp; Συνεργάτες Δικηγορικό Γραφείο</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Διαχείριση Βάσης Δεδομένων</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Θέλουμε να δημιουργήσουμε ένα σύστημα διαχείρισης υποθέσεων και πελατών. Χρειαζόμαστε ασφάλεια υψηλού επιπέδου λόγω ευαίσθητων δεδομένων.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Μέτρια</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024-01-16T09:15</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>contact_form_3.html</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Γιάννης Αντωνίου</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>giannis@restaurant-olympia.gr</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2310-555123</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ολυμπία Restaurant Chain</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Σύστημα POS</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Έχουμε 5 εστιατόρια και χρειαζόμαστε ενοποιημένο σύστημα POS με κεντρική διαχείριση, online παραγγελίες και loyalty program.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Υψηλή</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2024-01-17T11:45</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>contact_form_4.html</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Άννα Γεωργίου</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>anna.georgiou@medclinic.gr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>210-7654321</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Κέντρο Υγείας Αθήνας</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Σύστημα Διαχείρισης Ιατρείου</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Χρειαζόμαστε σύστημα διαχείρισης ασθενών, ραντεβού, ιατρικών αρχείων και τιμολόγησης. Πρέπει να είναι GDPR compliant.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Μέτρια</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-01-18T16:20</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>contact_form_5.html</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Κώστας Δημητρίου</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>kostas@buildingco.gr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2310-123456</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Δημητρίου Κατασκευές ΑΕ</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Σύστημα Διαχείρισης Έργων</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Διαχειριζόμαστε 15+ ταυτόχρονα έργα κατασκευών. Χρειαζόμαστε σύστημα για παρακολούθηση προόδου, κόστους, υλικών και εργατικού δυναμικού.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Χαμηλή</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2024-01-19T13:10</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>email_01.eml</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Σπύρος Μιχαήλ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>spyros.michail@techcorp.gr</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>210-3344556</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TechCorp AE</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>email_02.eml</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ελένη Παπαγεωργίου</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>eleni@fashionstore.gr</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fashion Store Athens</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>email_03.eml</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Invoice Notification</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>email_04.eml</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Παναγιώτης Κωνσταντίνου</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>panagiotis@autoservice.gr</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2310-987654</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>AutoService Κωνσταντίνου</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>email_05.eml</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Invoice Notification</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>email_06.eml</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Δημήτρης Βασιλείου</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>dimitris@hotelgroup.gr</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>22840-123456</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Aegean Hotel Group</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>email_07.eml</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Invoice Notification</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>email_08.eml</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Βασίλης Γεωργάκης</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>vasilis@pharmnet.gr</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>210-6677889</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>PharmNet - Δίκτυο Φαρμακείων</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>email_09.eml</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Invoice Notification</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>email_10.eml</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Σοφία Αλεξάνδρου</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>sofia@greenfood.gr</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>GreenFood Delivery</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-001.html</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>TF-2024-001</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>21/01/2024</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Office Solutions Ltd</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>€850.00</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>€204.00</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>€1,054.00</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Παράδοση σε 3 εργάσιμες ημέρες</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-002.html</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>TF-2024-002</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Microsoft Hellas</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>€2,400.00</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>€576.00</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>€2,976.00</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Άδειες ενεργοποιούνται εντός 24 ωρών</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-003.html</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>TF-2024-003</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Computer World SA</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>€4,200.00</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>€1,008.00</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>€5,208.00</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Εγκατάσταση και παραμετροποίηση περιλαμβάνεται</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-004.html</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>TF-2024-004</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Digital Marketing Agency</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>€1,600.00</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>€384.00</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>€1,984.00</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-005.html</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>TF-2024-005</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Βιβλιοπωλείο Καλλιτεχνία</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>€2,030.00</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>€487.20</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>€2,517.20</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Δωρεάν εκπαίδευση προσωπικού</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-006.html</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>TF-2024-006</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Ιατρείο Παπαδόπουλος</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>€6,220.00</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>€1,492.80</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>€7,712.80</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Συνολικές ώρες εργασίας: 100</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-007.html</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>TF-2024-007</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Καφέ "Ελληνικός"</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>€1,720.00</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>€412.80</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>€2,132.80</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Δωρεάν WiFi για τους πελάτες του καφέ</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-008.html</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>TF-2024-008</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Δικηγορικό Γραφείο Κ. Μάντζιου</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>€3,800.00</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>€912.00</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>€4,712.00</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>GDPR compliance included</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-009.html</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>TF-2024-009</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Fitness Club "Ηρακλής"</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>€1,590.00</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>€381.60</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>€1,971.60</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Περιλαμβάνει 500 ενεργά μέλη</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-010.html</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>TF-2024-010</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>30/01/2024</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Φωτογραφικό Στούντιο "Φως"</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>€3,500.00</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>€840.00</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>€4,340.00</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Περιλαμβάνει domain &amp; hosting για 1 χρόνο</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>4 εβδομάδες από την έναρξη εργασιών</t>
         </is>
       </c>
     </row>
@@ -489,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +2076,46 @@
           <t>source_file</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>full name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>submission date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -525,7 +2123,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -535,7 +2133,287 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>a.html</t>
+          <t>contact_form_1.html</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Νίκος Παπαδόπουλος</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nikos.papadopoulos@example.gr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>210-1234567</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Digital Marketing Pro</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Ανάπτυξη Website</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Χρειαζόμαστε ένα νέο e-commerce website για την εταιρεία μας. Έχουμε περίπου 200 προϊόντα και θέλουμε integration με το ERP μας.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Υψηλή</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-01-15T14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>contact_form_2.html</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Μαρία Κώστα</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>maria.kosta@lawfirm.gr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>210-9876543</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Κώστα &amp; Συνεργάτες Δικηγορικό Γραφείο</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Διαχείριση Βάσης Δεδομένων</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Θέλουμε να δημιουργήσουμε ένα σύστημα διαχείρισης υποθέσεων και πελατών. Χρειαζόμαστε ασφάλεια υψηλού επιπέδου λόγω ευαίσθητων δεδομένων.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Μέτρια</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024-01-16T09:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>contact_form_3.html</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Γιάννης Αντωνίου</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>giannis@restaurant-olympia.gr</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2310-555123</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ολυμπία Restaurant Chain</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Σύστημα POS</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Έχουμε 5 εστιατόρια και χρειαζόμαστε ενοποιημένο σύστημα POS με κεντρική διαχείριση, online παραγγελίες και loyalty program.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Υψηλή</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2024-01-17T11:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>contact_form_4.html</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Άννα Γεωργίου</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>anna.georgiou@medclinic.gr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>210-7654321</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Κέντρο Υγείας Αθήνας</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Σύστημα Διαχείρισης Ιατρείου</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Χρειαζόμαστε σύστημα διαχείρισης ασθενών, ραντεβού, ιατρικών αρχείων και τιμολόγησης. Πρέπει να είναι GDPR compliant.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Μέτρια</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-01-18T16:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>contact_form_5.html</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Κώστας Δημητρίου</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>kostas@buildingco.gr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2310-123456</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Δημητρίου Κατασκευές ΑΕ</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Σύστημα Διαχείρισης Έργων</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Διαχειριζόμαστε 15+ ταυτόχρονα έργα κατασκευών. Χρειαζόμαστε σύστημα για παρακολούθηση προόδου, κόστους, υλικών και εργατικού δυναμικού.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Χαμηλή</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2024-01-19T13:10</t>
         </is>
       </c>
     </row>
@@ -550,7 +2428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +2455,409 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>source_file</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>full name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>email type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>email_01.eml</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Σπύρος Μιχαήλ</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>spyros.michail@techcorp.gr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>210-3344556</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>TechCorp AE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>email_02.eml</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ελένη Παπαγεωργίου</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>eleni@fashionstore.gr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fashion Store Athens</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>email_03.eml</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Invoice Notification</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>email_04.eml</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Παναγιώτης Κωνσταντίνου</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>panagiotis@autoservice.gr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2310-987654</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>AutoService Κωνσταντίνου</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>email_05.eml</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Invoice Notification</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>email_06.eml</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Δημήτρης Βασιλείου</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>dimitris@hotelgroup.gr</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>22840-123456</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aegean Hotel Group</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>email_07.eml</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Invoice Notification</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>email_08.eml</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Βασίλης Γεωργάκης</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>vasilis@pharmnet.gr</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>210-6677889</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PharmNet - Δίκτυο Φαρμακείων</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>email_09.eml</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Invoice Notification</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>email_10.eml</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Σοφία Αλεξάνδρου</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>sofia@greenfood.gr</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>GreenFood Delivery</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Client Inquiry</t>
         </is>
       </c>
     </row>
@@ -591,7 +2872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +2901,606 @@
           <t>source_file</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>invoice_number</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>customer_name</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>net_total</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>vat_amount</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-001.html</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TF-2024-001</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>21/01/2024</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Office Solutions Ltd</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>€850.00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>€204.00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>€1,054.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Παράδοση σε 3 εργάσιμες ημέρες</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-002.html</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>TF-2024-002</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Microsoft Hellas</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>€2,400.00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>€576.00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>€2,976.00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Άδειες ενεργοποιούνται εντός 24 ωρών</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-003.html</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TF-2024-003</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Computer World SA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>€4,200.00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>€1,008.00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>€5,208.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Εγκατάσταση και παραμετροποίηση περιλαμβάνεται</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-004.html</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TF-2024-004</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Digital Marketing Agency</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>€1,600.00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>€384.00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>€1,984.00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-005.html</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TF-2024-005</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Βιβλιοπωλείο Καλλιτεχνία</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>€2,030.00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>€487.20</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>€2,517.20</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Δωρεάν εκπαίδευση προσωπικού</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-006.html</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>TF-2024-006</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ιατρείο Παπαδόπουλος</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>€6,220.00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>€1,492.80</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>€7,712.80</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Συνολικές ώρες εργασίας: 100</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>22</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-007.html</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TF-2024-007</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Καφέ "Ελληνικός"</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>€1,720.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>€412.80</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>€2,132.80</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Δωρεάν WiFi για τους πελάτες του καφέ</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-008.html</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TF-2024-008</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Δικηγορικό Γραφείο Κ. Μάντζιου</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>€3,800.00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>€912.00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>€4,712.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>GDPR compliance included</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>24</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-009.html</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>TF-2024-009</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fitness Club "Ηρακλής"</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>€1,590.00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>€381.60</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>€1,971.60</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Περιλαμβάνει 500 ενεργά μέλη</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>25</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>invoice_TF-2024-010.html</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TF-2024-010</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>30/01/2024</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Φωτογραφικό Στούντιο "Φως"</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>€3,500.00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>€840.00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>€4,340.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Περιλαμβάνει domain &amp; hosting για 1 χρόνο</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>4 εβδομάδες από την έναρξη εργασιών</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dashboard_snapshot.xlsx
+++ b/dashboard_snapshot.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,45 +499,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>email type</t>
+          <t>category</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>invoice_number</t>
+          <t>name</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>invoice number</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>date</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>customer_name</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>net_total</t>
+          <t>customer name</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>vat_amount</t>
+          <t>net total</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>vat amount</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>delivery</t>
         </is>
@@ -611,6 +616,7 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -680,6 +686,7 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -749,6 +756,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -756,7 +764,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>approved</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -818,6 +826,7 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -887,6 +896,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -907,11 +917,7 @@
           <t>email_01.eml</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Σπύρος Μιχαήλ</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>spyros.michail@techcorp.gr</t>
@@ -922,11 +928,7 @@
           <t>210-3344556</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>TechCorp AE</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -936,7 +938,11 @@
           <t>Client Inquiry</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Σπύρος Μιχαήλ</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -944,6 +950,7 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -964,22 +971,18 @@
           <t>email_02.eml</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ελένη Παπαγεωργίου</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>eleni@fashionstore.gr</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Fashion Store Athens</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6944-123456</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -989,7 +992,11 @@
           <t>Client Inquiry</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Ελένη Παπαγεωργίου</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -997,6 +1004,7 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1018,7 +1026,11 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>accounting@techflow-solutions.gr</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -1038,6 +1050,7 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1058,11 +1071,7 @@
           <t>email_04.eml</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Παναγιώτης Κωνσταντίνου</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>panagiotis@autoservice.gr</t>
@@ -1073,11 +1082,7 @@
           <t>2310-987654</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>AutoService Κωνσταντίνου</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1087,7 +1092,11 @@
           <t>Client Inquiry</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Παναγιώτης Κωνσταντίνου</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1095,6 +1104,7 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1116,7 +1126,11 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>accounting@techflow-solutions.gr</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -1136,6 +1150,7 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1156,11 +1171,7 @@
           <t>email_06.eml</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Δημήτρης Βασιλείου</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>dimitris@hotelgroup.gr</t>
@@ -1171,11 +1182,7 @@
           <t>22840-123456</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Aegean Hotel Group</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1185,7 +1192,11 @@
           <t>Client Inquiry</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Δημήτρης Βασιλείου</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1193,6 +1204,7 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1214,7 +1226,11 @@
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>accounting@techflow-solutions.gr</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -1234,6 +1250,7 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1254,11 +1271,7 @@
           <t>email_08.eml</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Βασίλης Γεωργάκης</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>vasilis@pharmnet.gr</t>
@@ -1269,11 +1282,7 @@
           <t>210-6677889</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PharmNet - Δίκτυο Φαρμακείων</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1283,7 +1292,11 @@
           <t>Client Inquiry</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Βασίλης Γεωργάκης</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1291,6 +1304,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1298,7 +1312,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1312,7 +1326,11 @@
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>accounting@techflow-solutions.gr</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1332,6 +1350,7 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1352,22 +1371,18 @@
           <t>email_10.eml</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Σοφία Αλεξάνδρου</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>sofia@greenfood.gr</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>GreenFood Delivery</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6977-888999</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1377,7 +1392,11 @@
           <t>Client Inquiry</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Σοφία Αλεξάνδρου</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1385,6 +1404,7 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1414,42 +1434,43 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
         <is>
           <t>TF-2024-001</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>21/01/2024</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Office Solutions Ltd</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>€850.00</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>€204.00</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>€1,054.00</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>Παράδοση σε 3 εργάσιμες ημέρες</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1479,42 +1500,43 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
         <is>
           <t>TF-2024-002</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>22/01/2024</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Microsoft Hellas</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>€2,400.00</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>€576.00</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>€2,976.00</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>Άδειες ενεργοποιούνται εντός 24 ωρών</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1544,42 +1566,43 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
         <is>
           <t>TF-2024-003</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>23/01/2024</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Computer World SA</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>€4,200.00</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>€1,008.00</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>€5,208.00</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>Εγκατάσταση και παραμετροποίηση περιλαμβάνεται</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1609,38 +1632,39 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
         <is>
           <t>TF-2024-004</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>24/01/2024</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Digital Marketing Agency</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>€1,600.00</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>€384.00</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>€1,984.00</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1670,42 +1694,43 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
         <is>
           <t>TF-2024-005</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>25/01/2024</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Βιβλιοπωλείο Καλλιτεχνία</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>€2,030.00</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>€487.20</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>€2,517.20</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>Δωρεάν εκπαίδευση προσωπικού</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1735,42 +1760,43 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
         <is>
           <t>TF-2024-006</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>26/01/2024</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Ιατρείο Παπαδόπουλος</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>€6,220.00</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>€1,492.80</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>€7,712.80</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>Συνολικές ώρες εργασίας: 100</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1800,42 +1826,43 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
         <is>
           <t>TF-2024-007</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>27/01/2024</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Καφέ "Ελληνικός"</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>€1,720.00</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>€412.80</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>€2,132.80</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>Δωρεάν WiFi για τους πελάτες του καφέ</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1865,42 +1892,43 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
         <is>
           <t>TF-2024-008</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>28/01/2024</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Δικηγορικό Γραφείο Κ. Μάντζιου</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>€3,800.00</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>€912.00</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>€4,712.00</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>GDPR compliance included</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1930,42 +1958,43 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
         <is>
           <t>TF-2024-009</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>29/01/2024</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Fitness Club "Ηρακλής"</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>€1,590.00</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>€381.60</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>€1,971.60</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>Περιλαμβάνει 500 ενεργά μέλη</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1995,42 +2024,43 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
         <is>
           <t>TF-2024-010</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>30/01/2024</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Φωτογραφικό Στούντιο "Φως"</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>€3,500.00</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>€840.00</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>€4,340.00</t>
-        </is>
-      </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Περιλαμβάνει domain &amp; hosting για 1 χρόνο</t>
+          <t>€4,340</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
+        <is>
+          <t>Περιλαμβάνει domain &amp; hosting για 1 χρ</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
         <is>
           <t>4 εβδομάδες από την έναρξη εργασιών</t>
         </is>
@@ -2303,7 +2333,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>approved</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2428,7 +2458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2459,27 +2489,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>full name</t>
+          <t>category</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>phone</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>email type</t>
         </is>
       </c>
     </row>
@@ -2504,27 +2529,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Σπύρος Μιχαήλ</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>spyros.michail@techcorp.gr</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>210-3344556</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>TechCorp AE</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Client Inquiry</t>
         </is>
       </c>
     </row>
@@ -2549,23 +2569,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Ελένη Παπαγεωργίου</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>eleni@fashionstore.gr</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fashion Store Athens</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Client Inquiry</t>
+          <t>6944-123456</t>
         </is>
       </c>
     </row>
@@ -2588,15 +2607,18 @@
           <t>email_03.eml</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Invoice Notification</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>accounting@techflow-solutions.gr</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Invoice Notification</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2619,27 +2641,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Παναγιώτης Κωνσταντίνου</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>panagiotis@autoservice.gr</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>2310-987654</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>AutoService Κωνσταντίνου</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Client Inquiry</t>
         </is>
       </c>
     </row>
@@ -2662,15 +2679,18 @@
           <t>email_05.eml</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Invoice Notification</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>accounting@techflow-solutions.gr</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Invoice Notification</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2693,27 +2713,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Δημήτρης Βασιλείου</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>dimitris@hotelgroup.gr</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>22840-123456</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Aegean Hotel Group</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Client Inquiry</t>
         </is>
       </c>
     </row>
@@ -2736,15 +2751,18 @@
           <t>email_07.eml</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Invoice Notification</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>accounting@techflow-solutions.gr</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Invoice Notification</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2767,27 +2785,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Βασίλης Γεωργάκης</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>vasilis@pharmnet.gr</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>210-6677889</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PharmNet - Δίκτυο Φαρμακείων</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Client Inquiry</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2810,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2810,15 +2823,18 @@
           <t>email_09.eml</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Invoice Notification</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>accounting@techflow-solutions.gr</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Invoice Notification</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2841,23 +2857,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Client Inquiry</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Σοφία Αλεξάνδρου</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>sofia@greenfood.gr</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>GreenFood Delivery</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Client Inquiry</t>
+          <t>6977-888999</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2918,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>invoice_number</t>
+          <t>invoice number</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -2913,17 +2928,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>customer_name</t>
+          <t>customer name</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>net_total</t>
+          <t>net total</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>vat_amount</t>
+          <t>vat amount</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -3488,12 +3503,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>€4,340.00</t>
+          <t>€4,340</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Περιλαμβάνει domain &amp; hosting για 1 χρόνο</t>
+          <t>Περιλαμβάνει domain &amp; hosting για 1 χρ</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
